--- a/academias/Biología - Estadisticos 20242.xlsx
+++ b/academias/Biología - Estadisticos 20242.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
   <si>
     <t>Docente</t>
   </si>
@@ -51,13 +51,19 @@
     <t>por_blancos</t>
   </si>
   <si>
+    <t>Martínez Castillo Columba</t>
+  </si>
+  <si>
     <t>Rivera Cruz Ezequiel</t>
   </si>
   <si>
+    <t>INTRODUCCIÓN A LA BIOQUÍMICA</t>
+  </si>
+  <si>
+    <t>Totales Docente</t>
+  </si>
+  <si>
     <t>TEMAS DE BIOLOGÍA CONTEMPORÁNEA</t>
-  </si>
-  <si>
-    <t>Totales Docente</t>
   </si>
   <si>
     <t>Totales Generales</t>
@@ -433,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,10 +492,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>41</v>
@@ -507,7 +513,7 @@
         <v>4.9</v>
       </c>
       <c r="I2" s="2">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -521,28 +527,28 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>36</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>100</v>
+        <v>97.2</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I3" s="2">
-        <v>9.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -556,28 +562,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>28</v>
       </c>
       <c r="E4">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
-        <v>92.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="H4" s="1">
-        <v>7.1</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2">
-        <v>8.9</v>
+        <v>7.8</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -591,59 +597,196 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>105</v>
       </c>
       <c r="E5">
+        <v>95</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4.9</v>
+      </c>
+      <c r="I6" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>100</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>105</v>
+      </c>
+      <c r="E9">
         <v>101</v>
       </c>
-      <c r="F5">
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G9" s="1">
         <v>96.2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H9" s="1">
         <v>3.8</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I9" s="2">
         <v>9.4</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6" t="s">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>210</v>
+      </c>
+      <c r="E10">
+        <v>196</v>
+      </c>
+      <c r="F10">
         <v>14</v>
       </c>
-      <c r="D6">
-        <v>105</v>
-      </c>
-      <c r="E6">
-        <v>101</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1">
-        <v>96.2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="I6" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="G10" s="1">
+        <v>93.3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -654,7 +797,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -706,34 +849,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>41</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F2">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>2.4</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J2">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -741,34 +884,34 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>36</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>97.2</v>
       </c>
       <c r="H3" s="1">
-        <v>100</v>
+        <v>2.8</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="J3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -776,34 +919,34 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>28</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H4" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="J4">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -811,60 +954,197 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>105</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="I5" s="2">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4.9</v>
+      </c>
+      <c r="I6" s="2">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>100</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
         <v>105</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>100</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>105</v>
-      </c>
-      <c r="K5" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>105</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>105</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>100</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>105</v>
-      </c>
-      <c r="K6" s="1">
-        <v>100</v>
+      <c r="E9">
+        <v>101</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>96.2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="I9" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>210</v>
+      </c>
+      <c r="E10">
+        <v>197</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1">
+        <v>93.8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +1154,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -926,28 +1206,28 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>41</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>95.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="I2" s="2">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -961,28 +1241,28 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>36</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>100</v>
+        <v>97.2</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I3" s="2">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -996,28 +1276,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>28</v>
       </c>
       <c r="E4">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
-        <v>92.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="H4" s="1">
-        <v>7.1</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1031,59 +1311,196 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>105</v>
       </c>
       <c r="E5">
+        <v>96</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="I5" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4.9</v>
+      </c>
+      <c r="I6" s="2">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>100</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>105</v>
+      </c>
+      <c r="E9">
         <v>101</v>
       </c>
-      <c r="F5">
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G9" s="1">
         <v>96.2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H9" s="1">
         <v>3.8</v>
       </c>
-      <c r="I5" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>105</v>
-      </c>
-      <c r="E6">
-        <v>101</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1">
-        <v>96.2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="I6" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="I9" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>210</v>
+      </c>
+      <c r="E10">
+        <v>197</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1">
+        <v>93.8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
         <v>0</v>
       </c>
     </row>
